--- a/biology/Histoire de la zoologie et de la botanique/John_Mitchell_(médecin)/John_Mitchell_(médecin).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Mitchell_(médecin)/John_Mitchell_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>John_Mitchell_(m%C3%A9decin)</t>
+          <t>John_Mitchell_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Mitchell est un  médecin, un naturaliste et un  cartographe britannique, né le 3 avril 1711 dans le Comté de Lancaster (Virginie) et mort le 19 février 1768 à Londres.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>John_Mitchell_(m%C3%A9decin)</t>
+          <t>John_Mitchell_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’un marchand de tabac, Robert Mitchell et de Mary Chilton née Sharpe. Sa mère meurt quand Mitchell est encore jeune. On ignore le début de scolarité suivie par John Mitchell. Il entre à l’université d'Édimbourg probablement vers 1722 et obtient son Master of Arts en 1729. Il étudie ensuite la médecine et obtient son titre de docteur d’une université européenne en 1731 ou 1732. Il se marie avec une certaine Helen, mais on ignore la date de son mariage et s’il a des enfants.
 homme à femmes, il eut beaucoup de conquêtes et d'histoires désastreuses. on ne compte plus les enfants qu'il eut laissé derrière lui.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>John_Mitchell_(m%C3%A9decin)</t>
+          <t>John_Mitchell_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Carte de Mitchell des Dominions britanniques et Français en Amérique du Nord (1755)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mitchell est surtout célèbre pour sa Map of the British and French Dominions in North America (1755) qui lui demande cinq ans de travail. Son travail sera souvent copié et parfois plagié. Il y décrit la Nouvelle-France, la Nouvelle-Angleterre et les territoires Nord-Amérindiens. Il fait aussi paraître The Contest in America between Great Britain and France with Its Consequences and Importance, by an Impartial Hand (1757) et The Present State of Great Britain and North America with Regard to Agriculture, Population, Trade and Manufactures, Impartially Considered (1767).
 </t>
